--- a/Model_optimization/data_storage.xlsx
+++ b/Model_optimization/data_storage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SOCini</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Cess</t>
+  </si>
+  <si>
+    <t>pf_ess</t>
+  </si>
+  <si>
+    <t>ramp</t>
   </si>
 </sst>
 </file>
@@ -362,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -392,8 +398,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -414,6 +426,12 @@
       </c>
       <c r="G2">
         <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Model_optimization/data_storage.xlsx
+++ b/Model_optimization/data_storage.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,10 +419,10 @@
         <v>30</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="G2">
         <v>0.03</v>

--- a/Model_optimization/data_storage.xlsx
+++ b/Model_optimization/data_storage.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Model_optimization/data_storage.xlsx
+++ b/Model_optimization/data_storage.xlsx
@@ -431,7 +431,7 @@
         <v>0.9</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
